--- a/data/trans_camb/P28A_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28A_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,41</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-21,32</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-25,2</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-19,41</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-23,41</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-20,61</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,11</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-22,34</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-23,02</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-16,47</t>
+          <t>-6,35</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -0,07</t>
+          <t>-7,41; 0,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -12,05</t>
+          <t>-9,57; -3,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -16,96</t>
+          <t>-10,8; -4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -10,19</t>
+          <t>-6,09; -0,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 2,33</t>
+          <t>-7,82; -3,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,19; -16,21</t>
+          <t>-7,35; -2,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -12,9</t>
+          <t>-6,04; -1,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -4,09</t>
+          <t>-7,98; -3,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -1,91</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-27,97; -17,11</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-28,52; -17,01</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-22,05; -10,5</t>
+          <t>-8,36; -4,49</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-33,72%</t>
+          <t>-35,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-63,03%</t>
+          <t>-59,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-74,5%</t>
+          <t>-71,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-57,37%</t>
+          <t>-38,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-59,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-68,32%</t>
+          <t>-55,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-60,14%</t>
+          <t>-36,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-38,26%</t>
+          <t>-59,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-65,65%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-67,64%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-48,41%</t>
+          <t>-64,01%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,67; -0,02</t>
+          <t>-59,29; 3,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,5; -43,32</t>
+          <t>-73,58; -37,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,71; -56,31</t>
+          <t>-84,88; -52,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,38; -35,09</t>
+          <t>-58,04; -7,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 8,09</t>
+          <t>-73,15; -39,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,47; -53,57</t>
+          <t>-70,06; -30,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,84; -41,67</t>
+          <t>-53,29; -10,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,76; -13,8</t>
+          <t>-70,52; -45,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,61; -5,64</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-73,97; -55,16</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-75,7; -55,07</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-59,75; -34,69</t>
+          <t>-73,99; -49,67</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,84</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,72</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,48</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,09</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,36</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-25,87</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-20,2</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,76</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-18,93</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-22,3</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-19,29</t>
+          <t>-6,49</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 7,65</t>
+          <t>-4,45; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,85; -9,42</t>
+          <t>-8,56; -2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,5; -11,82</t>
+          <t>-9,56; -3,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,89; -7,26</t>
+          <t>-8,98; -2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,2; -8,74</t>
+          <t>-7,7; -1,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,55; -8,66</t>
+          <t>-9,52; -3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,17; -16,32</t>
+          <t>-5,71; 0,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -5,5</t>
+          <t>-7,41; -3,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -2,02</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-25,16; -12,68</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-28,67; -16,35</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-26,31; -11,16</t>
+          <t>-8,81; -4,61</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-64,16%</t>
+          <t>-59,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-70,92%</t>
+          <t>-69,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-62,87%</t>
+          <t>-56,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,39%</t>
+          <t>-45,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,66%</t>
+          <t>-61,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,92%</t>
+          <t>-31,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-52,25%</t>
+          <t>-52,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,06%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-58,18%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-68,54%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-59,29%</t>
+          <t>-65,59%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,32; 32,62</t>
+          <t>-41,6; 70,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,13; -40,66</t>
+          <t>-75,36; -32,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,29; -48,5</t>
+          <t>-83,63; -48,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -29,24</t>
+          <t>-73,69; -30,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,7; -24,17</t>
+          <t>-63,85; -14,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,68; -26,82</t>
+          <t>-76,9; -38,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,82; -49,23</t>
+          <t>-52,2; 2,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,53; -14,96</t>
+          <t>-65,42; -34,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,99; -6,44</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-69,04; -43,02</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-78,49; -55,82</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-76,44; -37,01</t>
+          <t>-76,69; -51,46</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,44</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,7</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-13,39</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-11,33</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-13,35</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>-2,6</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 12,43</t>
+          <t>-8,02; 3,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 12,92</t>
+          <t>-5,52; 6,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 11,06</t>
+          <t>-6,24; 6,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 3,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 5,5</t>
+          <t>-12,21; -0,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 1,76</t>
+          <t>-9,86; 3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 4,86</t>
+          <t>-6,95; 1,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,52; 1,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 3,79</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-25,57; 3,93</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-27,03; -0,91</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-6,94; 2,15</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-40,65%</t>
+          <t>-41,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,91%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,07%</t>
+          <t>-28,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,24%</t>
+          <t>-52,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,02%</t>
+          <t>-29,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-34,12%</t>
+          <t>-31,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,7%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-36,22%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-42,66%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-29,28%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,41; 116,2</t>
+          <t>-87,62; 133,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 106,41</t>
+          <t>-64,94; 190,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,0; 123,96</t>
+          <t>-81,33; 262,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,46; 50,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,54; 19,81</t>
+          <t>-79,64; -0,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,52; 10,33</t>
+          <t>-66,39; 45,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,13; 16,73</t>
+          <t>-63,41; 26,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,64; 18,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,15; 15,77</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-65,01; 16,13</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-70,13; -0,97</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-63,54; 36,08</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-18,09</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-21,38</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,65</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,79</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-21,8</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,87</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-19,79</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-21,55</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-16,41</t>
+          <t>-5,96</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -0,29</t>
+          <t>-4,88; 0,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -12,09</t>
+          <t>-7,2; -3,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -15,5</t>
+          <t>-8,68; -4,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,22; -10,26</t>
+          <t>-6,09; -2,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,97; -6,7</t>
+          <t>-7,03; -3,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -16,12</t>
+          <t>-7,1; -3,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -15,84</t>
+          <t>-4,84; -1,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -9,52</t>
+          <t>-6,53; -3,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -5,4</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; -15,91</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-25,53; -17,62</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-21,11; -12,12</t>
+          <t>-7,21; -4,55</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-27,37%</t>
+          <t>-23,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-60,03%</t>
+          <t>-54,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-70,96%</t>
+          <t>-67,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-55,27%</t>
+          <t>-43,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-35,57%</t>
+          <t>-53,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,55%</t>
+          <t>-54,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-59,59%</t>
+          <t>-34,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-43,37%</t>
+          <t>-53,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-31,76%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-59,77%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-65,09%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-49,56%</t>
+          <t>-60,9%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,93; -0,63</t>
+          <t>-44,99; 8,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,38; -45,91</t>
+          <t>-66,48; -37,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,58; -55,79</t>
+          <t>-78,1; -52,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,0; -38,75</t>
+          <t>-56,12; -26,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -18,68</t>
+          <t>-64,92; -39,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -49,3</t>
+          <t>-65,29; -38,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-68,41; -47,85</t>
+          <t>-46,81; -18,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,62; -27,99</t>
+          <t>-62,5; -44,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,22; -16,4</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-66,84; -51,63</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-72,31; -57,68</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-58,9; -38,86</t>
+          <t>-68,61; -50,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
